--- a/imageCreationExcel/back/darkyobi/darkyobi_10.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_10.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6011699673300289</v>
+        <v>1.064882344006411</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.014850274258156</v>
+        <v>18.97883028968138</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>29.84262866021649</v>
+        <v>1.193976904936772</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_B_sharpness0.6_gamma1.0_brightness30.0.jpg</t>
+          <t>1_7_gamma1.1_brightness19.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -528,24 +528,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8822323212769079</v>
+        <v>0.4651112625559206</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.1282997221573766</v>
+        <v>1.122471028949227</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>23.8031147321689</v>
+        <v>5.46640099463784</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_E_gamma0.88_sharpness0.13_equalization24.0.jpg</t>
+          <t>2_T_sharpness0.47_contrast1.1_equalization5.5.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9799122403856952</v>
+        <v>0.3132323776170471</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.719382455181709</v>
+        <v>0.8902734319439041</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>31.78579157318923</v>
+        <v>24.16354247725997</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_1_contrast0.98_gamma0.72_equalization32.0.jpg</t>
+          <t>3_8_sharpness0.31_gamma0.89_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,15 +621,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8367154713571241</v>
+        <v>0.3778202840484659</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7279781991508708</v>
+        <v>1.056621992061137</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>24.90566228416318</v>
+        <v>25.20630863014124</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_2_sharpness0.84_gamma0.73_equalization25.0.jpg</t>
+          <t>4_C_sharpness0.38_contrast1.1_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9409890913262786</v>
+        <v>0.9257925138049224</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7372832869476532</v>
+        <v>0.6295614159031243</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>23.84278882614945</v>
+        <v>15.86871780201897</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_P_contrast0.94_sharpness0.74_equalization24.0.jpg</t>
+          <t>5_7_contrast0.93_gamma0.63_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -701,34 +701,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5373078914815732</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>14.10185993058105</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F7" t="n">
-        <v>0.5380412154173654</v>
+        <v>10.86701483883456</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6269576597160202</v>
+        <v>1.1679566855814</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_E_brightness14.0_gamma0.54_sharpness0.63.jpg</t>
+          <t>6_E_gamma0.54_brightness11.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,30 +747,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7527966300574453</v>
+        <v>0.548768757651008</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.0642881631369</v>
+        <v>1.561399763808494</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.204670725274793</v>
+        <v>1.113803964603809</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_0_gamma0.75_contrast1.1_equalization6.2.jpg</t>
+          <t>7_B_gamma0.55_brightness1.6_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9192721769457939</v>
+        <v>0.1642565861256853</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>19.30106768540047</v>
+        <v>1.046959397898507</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.954469525702639</v>
+        <v>13.13376157134482</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_T_contrast0.92_brightness19.0_gamma0.95.jpg</t>
+          <t>8_3_sharpness0.16_contrast1.0_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,30 +831,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.23106457345756</v>
+        <v>2.771384624927062</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.161525500438641</v>
+        <v>0.7329120423994686</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.795346306791574</v>
+        <v>0.973883117827111</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_brightness17.0_contrast1.2_sharpness0.8.jpg</t>
+          <t>9_1_brightness2.8_gamma0.73_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -869,34 +869,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6929037106395456</v>
+        <v>1.047921943698521</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23.1766825585074</v>
+        <v>0.7841659965186494</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8083752386022324</v>
+        <v>14.70931240514561</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_gamma0.69_brightness23.0_contrast0.81.jpg</t>
+          <t>10_C_contrast1.0_gamma0.78_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5668792050884294</v>
+        <v>0.7906989314102266</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8043713905254839</v>
+        <v>1.082329870679823</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>28.57807644418252</v>
+        <v>23.54011838498928</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_E_sharpness0.57_contrast0.8_equalization29.0.jpg</t>
+          <t>11_B_sharpness0.79_contrast1.1_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5988329798342011</v>
+        <v>0.4952302370913801</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.217485146134295</v>
+        <v>1.158164679839224</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.052700656366393</v>
+        <v>8.377024549376715</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_S_sharpness0.6_brightness2.2_gamma1.1.jpg</t>
+          <t>12_C_sharpness0.5_contrast1.2_equalization8.4.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9102871894853631</v>
+        <v>0.8350762936945779</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7202040214569286</v>
+        <v>1.078650518813643</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5808168501090977</v>
+        <v>25.49642162262165</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_contrast0.91_gamma0.72_sharpness0.58.jpg</t>
+          <t>13_0_sharpness0.84_gamma1.1_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1710525463467383</v>
+        <v>1.095358520112949</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8342919867515295</v>
+        <v>0.56947304127521</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.061682478805338</v>
+        <v>0.6798958920818884</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_brightness0.17_sharpness0.83_contrast1.1.jpg</t>
+          <t>14_8_contrast1.1_gamma0.57_sharpness0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.029640509221269</v>
+        <v>0.8238168118649808</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19.85881837433078</v>
+        <v>28.76102115581033</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8689198467932919</v>
+        <v>0.8979912772869256</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_1_gamma1.0_brightness20.0_contrast0.87.jpg</t>
+          <t>15_2_contrast0.82_brightness29.0_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.195358149376638</v>
+        <v>8.536041549585571</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6255928640581196</v>
+        <v>0.6282579920782119</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>19.45459197998247</v>
+        <v>0.8317380895127351</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_T_contrast1.2_sharpness0.63_brightness19.0.jpg</t>
+          <t>16_2_brightness8.5_sharpness0.63_gamma0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8872715830569962</v>
+        <v>1.133061832823214</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.177832109541905</v>
+        <v>0.3690121359755971</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>31.49741988485321</v>
+        <v>23.21619337248693</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_0_gamma0.89_contrast1.2_equalization31.0.jpg</t>
+          <t>17_S_contrast1.1_sharpness0.37_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.065454448319848</v>
+        <v>1.036012759926288</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.6820121041815393</v>
+        <v>0.7783078376144932</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>14.54890839412609</v>
+        <v>26.98277915019154</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_S_contrast1.1_gamma0.68_equalization15.0.jpg</t>
+          <t>18_9_contrast1.0_gamma0.78_brightness27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.226926916032596</v>
+        <v>1.037020293679596</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6730795192544632</v>
+        <v>14.20896051381104</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>31.68146413005027</v>
+        <v>0.9723979597297703</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_I_sharpness0.23_gamma0.67_equalization32.0.jpg</t>
+          <t>19_S_contrast1.0_brightness14.0_gamma0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.301468195047177</v>
+        <v>1.117711541190125</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.050657613485801</v>
+        <v>0.1288834377498643</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>21.55020336685126</v>
+        <v>3.038511509295168</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_8_sharpness0.3_contrast1.1_equalization22.0.jpg</t>
+          <t>20_S_contrast1.1_sharpness0.13_brightness3.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27.48807196579171</v>
+        <v>0.5573995495965022</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9854151495011189</v>
+        <v>0.9045637027744917</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.241322130991206</v>
+        <v>15.84459111409911</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_brightness27.0_gamma0.99_sharpness0.24.jpg</t>
+          <t>21_0_gamma0.56_contrast0.9_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6775697237175496</v>
+        <v>2.61047153904017</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>21.99065552525734</v>
+        <v>0.5161163161739734</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9884692985284516</v>
+        <v>0.6246361849669876</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_gamma0.68_brightness22.0_contrast0.99.jpg</t>
+          <t>22_1_brightness2.6_sharpness0.52_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6054233728862428</v>
+        <v>0.8467845094316456</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7424993638342705</v>
+        <v>1.07208896796399</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.841942541294033</v>
+        <v>19.21634277607902</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_gamma0.61_sharpness0.74_contrast0.84.jpg</t>
+          <t>23_1_contrast0.85_gamma1.1_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.4973695481702733</v>
+        <v>6.59035521592206</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6394642544653828</v>
+        <v>0.6201061274257803</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.099959135865947</v>
+        <v>0.531917091839171</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_I_brightness0.5_sharpness0.64_contrast1.1.jpg</t>
+          <t>24_1_brightness6.6_sharpness0.62_gamma0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.045049131135809</v>
+        <v>0.6295232287876759</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.4000920967771444</v>
+        <v>0.8204259754847708</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15.69180152252818</v>
+        <v>23.60515467036601</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_contrast1.0_sharpness0.4_equalization16.0.jpg</t>
+          <t>25_7_sharpness0.63_contrast0.82_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1775436038186765</v>
+        <v>0.9345269385867185</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20.58563846708225</v>
+        <v>0.976936704641914</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8733178174083646</v>
+        <v>8.396022602890566</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_C_sharpness0.18_brightness21.0_contrast0.87.jpg</t>
+          <t>26_8_gamma0.93_sharpness0.98_equalization8.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5279062170621275</v>
+        <v>1.023364051046229</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>29.75452208203598</v>
+        <v>0.1591343135637224</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.6485354200385137</v>
+        <v>5.772003105510926</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_gamma0.53_brightness30.0_sharpness0.65.jpg</t>
+          <t>27_7_contrast1.0_sharpness0.16_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5897560441253727</v>
+        <v>1.151428574047072</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9446959538112669</v>
+        <v>0.8018445046735829</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9.416321709889427</v>
+        <v>28.91539916981242</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_0_gamma0.59_contrast0.94_equalization9.4.jpg</t>
+          <t>28_T_contrast1.2_gamma0.8_brightness29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6859946257876073</v>
+        <v>1.059064043982521</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>17.07726141103764</v>
+        <v>0.3210626178767946</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.9236174991129166</v>
+        <v>8.136771883459311</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_I_sharpness0.69_brightness17.0_gamma0.92.jpg</t>
+          <t>29_T_gamma1.1_sharpness0.32_equalization8.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.07622690486904</v>
+        <v>1.024417323400902</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.160610932772028</v>
+        <v>0.7712179618431302</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>29.20580212189788</v>
+        <v>31.19862875926516</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_0_gamma1.1_contrast1.2_equalization29.0.jpg</t>
+          <t>30_E_contrast1.0_gamma0.77_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1751,34 +1751,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9186225116280482</v>
+        <v>0.9430589219643144</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.938066697005234</v>
+        <v>25.53984560018672</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>21.15752477754674</v>
+        <v>0.6124079382889214</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_1_contrast0.92_sharpness0.94_equalization21.0.jpg</t>
+          <t>31_1_sharpness0.94_brightness26.0_gamma0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.087210230959445</v>
+        <v>0.9714064861032272</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6703927636226573</v>
+        <v>1.195811162878248</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>24.56839168555415</v>
+        <v>18.75187682031516</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_contrast1.1_sharpness0.67_equalization25.0.jpg</t>
+          <t>32_0_gamma0.97_contrast1.2_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.035966979412649</v>
+        <v>15.67996994574911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>27.75773576348886</v>
+        <v>0.9869596556330205</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.7871008347155635</v>
+        <v>0.8962144203686897</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_P_contrast1.0_brightness28.0_gamma0.79.jpg</t>
+          <t>33_S_brightness16.0_gamma0.99_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.147109836896318</v>
+        <v>16.78117970412202</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20.56336882202561</v>
+        <v>0.5363473243915886</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.8769923462064423</v>
+        <v>1.109906894071796</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_1_contrast1.1_brightness21.0_sharpness0.88.jpg</t>
+          <t>34_9_brightness17.0_sharpness0.54_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,30 +1923,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.1506793543037906</v>
+        <v>0.5083403385663053</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.024975637182373</v>
+        <v>16.8143391211359</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>29.20321625353102</v>
+        <v>0.8422445716849306</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_S_sharpness0.15_gamma1.0_equalization29.0.jpg</t>
+          <t>35_0_sharpness0.51_brightness17.0_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4.064136548402297</v>
+        <v>22.40411204106609</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.094708071894708</v>
+        <v>0.6578527563054005</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.7081636693211392</v>
+        <v>0.8786266125078493</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_brightness4.1_contrast1.1_sharpness0.71.jpg</t>
+          <t>36_0_brightness22.0_sharpness0.66_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,16 +1998,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.01420469449123229</v>
+        <v>0.9324102510064887</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7516857800595622</v>
+        <v>0.5895569730473801</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>24.35881333744995</v>
+        <v>26.46959644200976</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_0_sharpness0.014_gamma0.75_equalization24.0.jpg</t>
+          <t>37_S_contrast0.93_gamma0.59_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9525751354270114</v>
+        <v>1.111601432438188</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9800955151860796</v>
+        <v>0.4056750015622442</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>17.12261078648882</v>
+        <v>19.37052052517625</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_9_sharpness0.95_contrast0.98_equalization17.0.jpg</t>
+          <t>38_S_contrast1.1_sharpness0.41_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1.093746212018793</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>10.34720487728639</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F40" t="n">
-        <v>0.7615832454268396</v>
+        <v>12.91200991270936</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.073350483498876</v>
+        <v>0.9071209422708777</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_3_brightness10.0_gamma0.76_contrast1.1.jpg</t>
+          <t>39_C_contrast1.1_brightness13.0_gamma0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15.0928364498745</v>
+        <v>1.07432609608188</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7206424838803033</v>
+        <v>0.4184527019321046</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.7168569690626915</v>
+        <v>21.6330537674559</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_B_brightness15.0_gamma0.72_sharpness0.72.jpg</t>
+          <t>40_S_contrast1.1_sharpness0.42_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.7756503204546837</v>
+        <v>5.381040583615462</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5113740309290933</v>
+        <v>0.6164357079347351</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>14.32429895437713</v>
+        <v>0.8671367744784337</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_3_gamma0.78_sharpness0.51_equalization14.0.jpg</t>
+          <t>41_S_brightness5.4_gamma0.62_contrast0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,30 +2217,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.560165196473304</v>
+        <v>0.9259381026261264</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9321612218824841</v>
+        <v>0.9139297992769694</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>22.50092739397955</v>
+        <v>31.84288709405202</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_9_gamma0.56_contrast0.93_brightness23.0.jpg</t>
+          <t>42_8_gamma0.93_sharpness0.91_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.1005472701558211</v>
+        <v>0.8747107186598351</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5423420398642992</v>
+        <v>0.8038478414698121</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>11.61862385421034</v>
+        <v>13.96409413706069</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_sharpness0.1_gamma0.54_equalization12.0.jpg</t>
+          <t>43_2_gamma0.87_sharpness0.8_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4650428577569002</v>
+        <v>1.074866287211206</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.3575589320952344</v>
+        <v>14.71191110881308</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.025197923571449</v>
+        <v>0.7227027000055821</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_B_sharpness0.47_brightness0.36_gamma1.0.jpg</t>
+          <t>44_2_contrast1.1_brightness15.0_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.1391726378590999</v>
+        <v>0.5361385258808931</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8021488426451817</v>
+        <v>1.07470943339981</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11.5744986269962</v>
+        <v>27.81303825503689</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_7_sharpness0.14_contrast0.8_equalization12.0.jpg</t>
+          <t>45_3_sharpness0.54_contrast1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2381,34 +2381,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.952711917732354</v>
+        <v>13.45474294298329</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9819009046108457</v>
+        <v>1.016833876791696</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>25.25354784670882</v>
+        <v>0.9477639257900942</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_S_gamma0.95_sharpness0.98_equalization25.0.jpg</t>
+          <t>46_S_brightness13.0_contrast1.0_gamma0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,24 +2418,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.2429452567134589</v>
+        <v>0.7564067927463862</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9121735631569606</v>
+        <v>0.9150487168266093</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>14.08265960868281</v>
+        <v>12.89147493661322</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_B_sharpness0.24_contrast0.91_equalization14.0.jpg</t>
+          <t>47_0_gamma0.76_sharpness0.92_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.050528693988645</v>
+        <v>0.6998611477424481</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.7765579430221616</v>
+        <v>1.134613731767609</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>13.88405189353205</v>
+        <v>0.7721284738883467</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_9_contrast1.1_gamma0.78_equalization14.0.jpg</t>
+          <t>48_C_sharpness0.7_contrast1.1_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
